--- a/Macro_Data.xlsx
+++ b/Macro_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Elise/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD347539-D5DA-6347-9FC9-6AA030088D4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FF8301A-B7BA-C444-9334-C843999BB47F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34440" yWindow="-2360" windowWidth="28040" windowHeight="16940" xr2:uid="{4EE6053A-958A-2B47-B0A7-FFE2C60B47C8}"/>
+    <workbookView xWindow="34440" yWindow="-2360" windowWidth="28040" windowHeight="16940" activeTab="1" xr2:uid="{4EE6053A-958A-2B47-B0A7-FFE2C60B47C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
   <si>
     <t>INDPRO</t>
   </si>
@@ -131,12 +131,6 @@
   </si>
   <si>
     <t>1-Year Treasury Constant Maturity Rate, Percent, Monthly, Not Seasonally Adjusted</t>
-  </si>
-  <si>
-    <t>H8B1301NCBCMG</t>
-  </si>
-  <si>
-    <t>Treasury and Agency Securities: Mortgage-Backed Securities (MBS), All Commercial Banks, Percent Change at Annual Rate, Monthly, Seasonally Adjusted</t>
   </si>
 </sst>
 </file>
@@ -507,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{430F75BD-55A0-9849-95A5-96C4323D9A68}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -632,25 +626,17 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" t="s">
         <v>15</v>
       </c>
     </row>
@@ -661,20 +647,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AF1C6B7-520D-6645-8913-D347E608A51C}">
-  <dimension ref="A1:R175"/>
+  <dimension ref="A1:Q175"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A145" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A175" sqref="A175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="16.83203125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -718,16 +703,13 @@
         <v>10</v>
       </c>
       <c r="P1" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="Q1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>39083</v>
       </c>
@@ -774,17 +756,14 @@
       <c r="O2" s="3">
         <v>54.51</v>
       </c>
-      <c r="P2" s="8">
-        <v>-0.9</v>
-      </c>
-      <c r="Q2" s="6">
+      <c r="P2" s="6">
         <v>1409</v>
       </c>
-      <c r="R2" s="8">
+      <c r="Q2" s="8">
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>39114</v>
       </c>
@@ -831,17 +810,14 @@
       <c r="O3" s="3">
         <v>59.28</v>
       </c>
-      <c r="P3" s="8">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="Q3" s="6">
+      <c r="P3" s="6">
         <v>1480</v>
       </c>
-      <c r="R3" s="8">
+      <c r="Q3" s="8">
         <v>4.5</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>39142</v>
       </c>
@@ -888,17 +864,14 @@
       <c r="O4" s="3">
         <v>60.44</v>
       </c>
-      <c r="P4" s="8">
-        <v>9</v>
-      </c>
-      <c r="Q4" s="6">
+      <c r="P4" s="6">
         <v>1495</v>
       </c>
-      <c r="R4" s="8">
+      <c r="Q4" s="8">
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>39173</v>
       </c>
@@ -945,17 +918,14 @@
       <c r="O5" s="3">
         <v>63.98</v>
       </c>
-      <c r="P5" s="8">
-        <v>5.8</v>
-      </c>
-      <c r="Q5" s="6">
+      <c r="P5" s="6">
         <v>1490</v>
       </c>
-      <c r="R5" s="8">
+      <c r="Q5" s="8">
         <v>4.5</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>39203</v>
       </c>
@@ -1002,17 +972,14 @@
       <c r="O6" s="3">
         <v>63.46</v>
       </c>
-      <c r="P6" s="8">
-        <v>11.3</v>
-      </c>
-      <c r="Q6" s="6">
+      <c r="P6" s="6">
         <v>1415</v>
       </c>
-      <c r="R6" s="8">
+      <c r="Q6" s="8">
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>39234</v>
       </c>
@@ -1059,17 +1026,14 @@
       <c r="O7" s="3">
         <v>67.489999999999995</v>
       </c>
-      <c r="P7" s="8">
-        <v>-1.4</v>
-      </c>
-      <c r="Q7" s="6">
+      <c r="P7" s="6">
         <v>1448</v>
       </c>
-      <c r="R7" s="8">
+      <c r="Q7" s="8">
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>39264</v>
       </c>
@@ -1116,17 +1080,14 @@
       <c r="O8" s="3">
         <v>74.12</v>
       </c>
-      <c r="P8" s="8">
-        <v>7.1</v>
-      </c>
-      <c r="Q8" s="6">
+      <c r="P8" s="6">
         <v>1354</v>
       </c>
-      <c r="R8" s="8">
+      <c r="Q8" s="8">
         <v>4.7</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>39295</v>
       </c>
@@ -1173,17 +1134,14 @@
       <c r="O9" s="3">
         <v>72.36</v>
       </c>
-      <c r="P9" s="8">
-        <v>-10</v>
-      </c>
-      <c r="Q9" s="6">
+      <c r="P9" s="6">
         <v>1330</v>
       </c>
-      <c r="R9" s="8">
+      <c r="Q9" s="8">
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>39326</v>
       </c>
@@ -1230,17 +1188,14 @@
       <c r="O10" s="3">
         <v>79.92</v>
       </c>
-      <c r="P10" s="8">
-        <v>1.7</v>
-      </c>
-      <c r="Q10" s="6">
+      <c r="P10" s="6">
         <v>1183</v>
       </c>
-      <c r="R10" s="8">
+      <c r="Q10" s="8">
         <v>4.7</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>39356</v>
       </c>
@@ -1287,17 +1242,14 @@
       <c r="O11" s="3">
         <v>85.8</v>
       </c>
-      <c r="P11" s="8">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="Q11" s="6">
+      <c r="P11" s="6">
         <v>1264</v>
       </c>
-      <c r="R11" s="8">
+      <c r="Q11" s="8">
         <v>4.7</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>39387</v>
       </c>
@@ -1344,17 +1296,14 @@
       <c r="O12" s="3">
         <v>94.77</v>
       </c>
-      <c r="P12" s="8">
-        <v>-5</v>
-      </c>
-      <c r="Q12" s="6">
+      <c r="P12" s="6">
         <v>1197</v>
       </c>
-      <c r="R12" s="8">
+      <c r="Q12" s="8">
         <v>4.7</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>39417</v>
       </c>
@@ -1401,17 +1350,14 @@
       <c r="O13" s="3">
         <v>91.69</v>
       </c>
-      <c r="P13" s="8">
-        <v>39.4</v>
-      </c>
-      <c r="Q13" s="6">
+      <c r="P13" s="6">
         <v>1037</v>
       </c>
-      <c r="R13" s="8">
+      <c r="Q13" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>39448</v>
       </c>
@@ -1458,17 +1404,14 @@
       <c r="O14" s="3">
         <v>92.97</v>
       </c>
-      <c r="P14" s="8">
-        <v>11.9</v>
-      </c>
-      <c r="Q14" s="6">
+      <c r="P14" s="6">
         <v>1084</v>
       </c>
-      <c r="R14" s="8">
+      <c r="Q14" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>39479</v>
       </c>
@@ -1515,17 +1458,14 @@
       <c r="O15" s="3">
         <v>95.39</v>
       </c>
-      <c r="P15" s="8">
-        <v>10.5</v>
-      </c>
-      <c r="Q15" s="6">
+      <c r="P15" s="6">
         <v>1103</v>
       </c>
-      <c r="R15" s="8">
+      <c r="Q15" s="8">
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>39508</v>
       </c>
@@ -1572,17 +1512,14 @@
       <c r="O16" s="3">
         <v>105.45</v>
       </c>
-      <c r="P16" s="8">
-        <v>27.4</v>
-      </c>
-      <c r="Q16" s="6">
+      <c r="P16" s="6">
         <v>1005</v>
       </c>
-      <c r="R16" s="8">
+      <c r="Q16" s="8">
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>39539</v>
       </c>
@@ -1629,17 +1566,14 @@
       <c r="O17" s="3">
         <v>112.58</v>
       </c>
-      <c r="P17" s="8">
-        <v>31.3</v>
-      </c>
-      <c r="Q17" s="6">
+      <c r="P17" s="6">
         <v>1013</v>
       </c>
-      <c r="R17" s="8">
+      <c r="Q17" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>39569</v>
       </c>
@@ -1686,17 +1620,14 @@
       <c r="O18" s="3">
         <v>125.4</v>
       </c>
-      <c r="P18" s="8">
-        <v>-11.6</v>
-      </c>
-      <c r="Q18" s="6">
+      <c r="P18" s="6">
         <v>973</v>
       </c>
-      <c r="R18" s="8">
+      <c r="Q18" s="8">
         <v>5.4</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>39600</v>
       </c>
@@ -1743,17 +1674,14 @@
       <c r="O19" s="3">
         <v>133.88</v>
       </c>
-      <c r="P19" s="8">
-        <v>1.8</v>
-      </c>
-      <c r="Q19" s="6">
+      <c r="P19" s="6">
         <v>1046</v>
       </c>
-      <c r="R19" s="8">
+      <c r="Q19" s="8">
         <v>5.6</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>39630</v>
       </c>
@@ -1800,17 +1728,14 @@
       <c r="O20" s="3">
         <v>133.37</v>
       </c>
-      <c r="P20" s="8">
-        <v>-4.5999999999999996</v>
-      </c>
-      <c r="Q20" s="6">
+      <c r="P20" s="6">
         <v>923</v>
       </c>
-      <c r="R20" s="8">
+      <c r="Q20" s="8">
         <v>5.8</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>39661</v>
       </c>
@@ -1857,17 +1782,14 @@
       <c r="O21" s="3">
         <v>116.67</v>
       </c>
-      <c r="P21" s="8">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="Q21" s="6">
+      <c r="P21" s="6">
         <v>844</v>
       </c>
-      <c r="R21" s="8">
+      <c r="Q21" s="8">
         <v>6.1</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>39692</v>
       </c>
@@ -1914,17 +1836,14 @@
       <c r="O22" s="3">
         <v>104.11</v>
       </c>
-      <c r="P22" s="8">
-        <v>27</v>
-      </c>
-      <c r="Q22" s="6">
+      <c r="P22" s="6">
         <v>820</v>
       </c>
-      <c r="R22" s="8">
+      <c r="Q22" s="8">
         <v>6.1</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>39722</v>
       </c>
@@ -1971,17 +1890,14 @@
       <c r="O23" s="3">
         <v>76.61</v>
       </c>
-      <c r="P23" s="8">
-        <v>7</v>
-      </c>
-      <c r="Q23" s="6">
+      <c r="P23" s="6">
         <v>777</v>
       </c>
-      <c r="R23" s="8">
+      <c r="Q23" s="8">
         <v>6.5</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>39753</v>
       </c>
@@ -2028,17 +1944,14 @@
       <c r="O24" s="3">
         <v>57.31</v>
       </c>
-      <c r="P24" s="8">
-        <v>8.5</v>
-      </c>
-      <c r="Q24" s="6">
+      <c r="P24" s="6">
         <v>652</v>
       </c>
-      <c r="R24" s="8">
+      <c r="Q24" s="8">
         <v>6.8</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>39783</v>
       </c>
@@ -2085,17 +1998,14 @@
       <c r="O25" s="3">
         <v>41.12</v>
       </c>
-      <c r="P25" s="8">
-        <v>12.3</v>
-      </c>
-      <c r="Q25" s="6">
+      <c r="P25" s="6">
         <v>560</v>
       </c>
-      <c r="R25" s="8">
+      <c r="Q25" s="8">
         <v>7.3</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>39814</v>
       </c>
@@ -2142,17 +2052,14 @@
       <c r="O26" s="3">
         <v>41.71</v>
       </c>
-      <c r="P26" s="8">
-        <v>17</v>
-      </c>
-      <c r="Q26" s="6">
+      <c r="P26" s="6">
         <v>490</v>
       </c>
-      <c r="R26" s="8">
+      <c r="Q26" s="8">
         <v>7.8</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>39845</v>
       </c>
@@ -2199,17 +2106,14 @@
       <c r="O27" s="3">
         <v>39.090000000000003</v>
       </c>
-      <c r="P27" s="8">
-        <v>19.7</v>
-      </c>
-      <c r="Q27" s="6">
+      <c r="P27" s="6">
         <v>582</v>
       </c>
-      <c r="R27" s="8">
+      <c r="Q27" s="8">
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>39873</v>
       </c>
@@ -2256,17 +2160,14 @@
       <c r="O28" s="3">
         <v>47.94</v>
       </c>
-      <c r="P28" s="8">
-        <v>14.7</v>
-      </c>
-      <c r="Q28" s="6">
+      <c r="P28" s="6">
         <v>505</v>
       </c>
-      <c r="R28" s="8">
+      <c r="Q28" s="8">
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>39904</v>
       </c>
@@ -2313,17 +2214,14 @@
       <c r="O29" s="3">
         <v>49.65</v>
       </c>
-      <c r="P29" s="8">
-        <v>12.1</v>
-      </c>
-      <c r="Q29" s="6">
+      <c r="P29" s="6">
         <v>478</v>
       </c>
-      <c r="R29" s="8">
+      <c r="Q29" s="8">
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>39934</v>
       </c>
@@ -2370,17 +2268,14 @@
       <c r="O30" s="3">
         <v>59.03</v>
       </c>
-      <c r="P30" s="8">
-        <v>13.6</v>
-      </c>
-      <c r="Q30" s="6">
+      <c r="P30" s="6">
         <v>540</v>
       </c>
-      <c r="R30" s="8">
+      <c r="Q30" s="8">
         <v>9.4</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>39965</v>
       </c>
@@ -2427,17 +2322,14 @@
       <c r="O31" s="3">
         <v>69.64</v>
       </c>
-      <c r="P31" s="8">
-        <v>17.399999999999999</v>
-      </c>
-      <c r="Q31" s="6">
+      <c r="P31" s="6">
         <v>585</v>
       </c>
-      <c r="R31" s="8">
+      <c r="Q31" s="8">
         <v>9.5</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>39995</v>
       </c>
@@ -2484,17 +2376,14 @@
       <c r="O32" s="3">
         <v>64.150000000000006</v>
       </c>
-      <c r="P32" s="8">
-        <v>18</v>
-      </c>
-      <c r="Q32" s="6">
+      <c r="P32" s="6">
         <v>594</v>
       </c>
-      <c r="R32" s="8">
+      <c r="Q32" s="8">
         <v>9.5</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>40026</v>
       </c>
@@ -2541,17 +2430,14 @@
       <c r="O33" s="3">
         <v>71.05</v>
       </c>
-      <c r="P33" s="8">
-        <v>16.8</v>
-      </c>
-      <c r="Q33" s="6">
+      <c r="P33" s="6">
         <v>586</v>
       </c>
-      <c r="R33" s="8">
+      <c r="Q33" s="8">
         <v>9.6</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>40057</v>
       </c>
@@ -2598,17 +2484,14 @@
       <c r="O34" s="3">
         <v>69.41</v>
       </c>
-      <c r="P34" s="8">
-        <v>14.1</v>
-      </c>
-      <c r="Q34" s="6">
+      <c r="P34" s="6">
         <v>585</v>
       </c>
-      <c r="R34" s="8">
+      <c r="Q34" s="8">
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>40087</v>
       </c>
@@ -2655,17 +2538,14 @@
       <c r="O35" s="3">
         <v>75.72</v>
       </c>
-      <c r="P35" s="8">
-        <v>2.7</v>
-      </c>
-      <c r="Q35" s="6">
+      <c r="P35" s="6">
         <v>534</v>
       </c>
-      <c r="R35" s="8">
+      <c r="Q35" s="8">
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>40118</v>
       </c>
@@ -2712,17 +2592,14 @@
       <c r="O36" s="3">
         <v>77.989999999999995</v>
       </c>
-      <c r="P36" s="8">
-        <v>-0.3</v>
-      </c>
-      <c r="Q36" s="6">
+      <c r="P36" s="6">
         <v>588</v>
       </c>
-      <c r="R36" s="8">
+      <c r="Q36" s="8">
         <v>9.9</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>40148</v>
       </c>
@@ -2769,17 +2646,14 @@
       <c r="O37" s="3">
         <v>74.47</v>
       </c>
-      <c r="P37" s="8">
-        <v>2.9</v>
-      </c>
-      <c r="Q37" s="6">
+      <c r="P37" s="6">
         <v>581</v>
       </c>
-      <c r="R37" s="8">
+      <c r="Q37" s="8">
         <v>9.9</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>40179</v>
       </c>
@@ -2826,17 +2700,14 @@
       <c r="O38" s="3">
         <v>78.33</v>
       </c>
-      <c r="P38" s="8">
-        <v>5.4</v>
-      </c>
-      <c r="Q38" s="6">
+      <c r="P38" s="6">
         <v>614</v>
       </c>
-      <c r="R38" s="8">
+      <c r="Q38" s="8">
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>40210</v>
       </c>
@@ -2883,17 +2754,14 @@
       <c r="O39" s="3">
         <v>76.39</v>
       </c>
-      <c r="P39" s="8">
-        <v>1</v>
-      </c>
-      <c r="Q39" s="6">
+      <c r="P39" s="6">
         <v>604</v>
       </c>
-      <c r="R39" s="8">
+      <c r="Q39" s="8">
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>40238</v>
       </c>
@@ -2940,17 +2808,14 @@
       <c r="O40" s="3">
         <v>81.2</v>
       </c>
-      <c r="P40" s="8">
-        <v>-12.6</v>
-      </c>
-      <c r="Q40" s="6">
+      <c r="P40" s="6">
         <v>636</v>
       </c>
-      <c r="R40" s="8">
+      <c r="Q40" s="8">
         <v>9.9</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>40269</v>
       </c>
@@ -2997,17 +2862,14 @@
       <c r="O41" s="3">
         <v>84.29</v>
       </c>
-      <c r="P41" s="8">
-        <v>-9.4</v>
-      </c>
-      <c r="Q41" s="6">
+      <c r="P41" s="6">
         <v>687</v>
       </c>
-      <c r="R41" s="8">
+      <c r="Q41" s="8">
         <v>9.9</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>40299</v>
       </c>
@@ -3054,17 +2916,14 @@
       <c r="O42" s="3">
         <v>73.739999999999995</v>
       </c>
-      <c r="P42" s="8">
-        <v>9.9</v>
-      </c>
-      <c r="Q42" s="6">
+      <c r="P42" s="6">
         <v>583</v>
       </c>
-      <c r="R42" s="8">
+      <c r="Q42" s="8">
         <v>9.6</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>40330</v>
       </c>
@@ -3111,17 +2970,14 @@
       <c r="O43" s="3">
         <v>75.34</v>
       </c>
-      <c r="P43" s="8">
-        <v>-4.2</v>
-      </c>
-      <c r="Q43" s="6">
+      <c r="P43" s="6">
         <v>536</v>
       </c>
-      <c r="R43" s="8">
+      <c r="Q43" s="8">
         <v>9.4</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>40360</v>
       </c>
@@ -3168,17 +3024,14 @@
       <c r="O44" s="3">
         <v>76.319999999999993</v>
       </c>
-      <c r="P44" s="8">
-        <v>-2.7</v>
-      </c>
-      <c r="Q44" s="6">
+      <c r="P44" s="6">
         <v>546</v>
       </c>
-      <c r="R44" s="8">
+      <c r="Q44" s="8">
         <v>9.4</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>40391</v>
       </c>
@@ -3225,17 +3078,14 @@
       <c r="O45" s="3">
         <v>76.599999999999994</v>
       </c>
-      <c r="P45" s="8">
-        <v>-4.5</v>
-      </c>
-      <c r="Q45" s="6">
+      <c r="P45" s="6">
         <v>599</v>
       </c>
-      <c r="R45" s="8">
+      <c r="Q45" s="8">
         <v>9.5</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>40422</v>
       </c>
@@ -3282,17 +3132,14 @@
       <c r="O46" s="3">
         <v>75.239999999999995</v>
       </c>
-      <c r="P46" s="8">
-        <v>-3</v>
-      </c>
-      <c r="Q46" s="6">
+      <c r="P46" s="6">
         <v>594</v>
       </c>
-      <c r="R46" s="8">
+      <c r="Q46" s="8">
         <v>9.5</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>40452</v>
       </c>
@@ -3339,17 +3186,14 @@
       <c r="O47" s="3">
         <v>81.89</v>
       </c>
-      <c r="P47" s="8">
-        <v>-2.7</v>
-      </c>
-      <c r="Q47" s="6">
+      <c r="P47" s="6">
         <v>543</v>
       </c>
-      <c r="R47" s="8">
+      <c r="Q47" s="8">
         <v>9.4</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>40483</v>
       </c>
@@ -3396,17 +3240,14 @@
       <c r="O48" s="3">
         <v>84.25</v>
       </c>
-      <c r="P48" s="8">
-        <v>-4</v>
-      </c>
-      <c r="Q48" s="6">
+      <c r="P48" s="6">
         <v>545</v>
       </c>
-      <c r="R48" s="8">
+      <c r="Q48" s="8">
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>40513</v>
       </c>
@@ -3453,17 +3294,14 @@
       <c r="O49" s="3">
         <v>89.15</v>
       </c>
-      <c r="P49" s="8">
-        <v>-10.5</v>
-      </c>
-      <c r="Q49" s="6">
+      <c r="P49" s="6">
         <v>539</v>
       </c>
-      <c r="R49" s="8">
+      <c r="Q49" s="8">
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>40544</v>
       </c>
@@ -3510,17 +3348,14 @@
       <c r="O50" s="3">
         <v>89.17</v>
       </c>
-      <c r="P50" s="8">
-        <v>-14.7</v>
-      </c>
-      <c r="Q50" s="6">
+      <c r="P50" s="6">
         <v>630</v>
       </c>
-      <c r="R50" s="8">
+      <c r="Q50" s="8">
         <v>9.1</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>40575</v>
       </c>
@@ -3567,17 +3402,14 @@
       <c r="O51" s="3">
         <v>88.58</v>
       </c>
-      <c r="P51" s="8">
-        <v>-8.5</v>
-      </c>
-      <c r="Q51" s="6">
+      <c r="P51" s="6">
         <v>517</v>
       </c>
-      <c r="R51" s="8">
+      <c r="Q51" s="8">
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>40603</v>
       </c>
@@ -3624,17 +3456,14 @@
       <c r="O52" s="3">
         <v>102.86</v>
       </c>
-      <c r="P52" s="8">
-        <v>-2.6</v>
-      </c>
-      <c r="Q52" s="6">
+      <c r="P52" s="6">
         <v>600</v>
       </c>
-      <c r="R52" s="8">
+      <c r="Q52" s="8">
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>40634</v>
       </c>
@@ -3681,17 +3510,14 @@
       <c r="O53" s="3">
         <v>109.53</v>
       </c>
-      <c r="P53" s="8">
-        <v>3.3</v>
-      </c>
-      <c r="Q53" s="6">
+      <c r="P53" s="6">
         <v>554</v>
       </c>
-      <c r="R53" s="8">
+      <c r="Q53" s="8">
         <v>9.1</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>40664</v>
       </c>
@@ -3738,17 +3564,14 @@
       <c r="O54" s="3">
         <v>100.9</v>
       </c>
-      <c r="P54" s="8">
-        <v>-1.4</v>
-      </c>
-      <c r="Q54" s="6">
+      <c r="P54" s="6">
         <v>561</v>
       </c>
-      <c r="R54" s="8">
+      <c r="Q54" s="8">
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>40695</v>
       </c>
@@ -3795,17 +3618,14 @@
       <c r="O55" s="3">
         <v>96.26</v>
       </c>
-      <c r="P55" s="8">
-        <v>5.5</v>
-      </c>
-      <c r="Q55" s="6">
+      <c r="P55" s="6">
         <v>608</v>
       </c>
-      <c r="R55" s="8">
+      <c r="Q55" s="8">
         <v>9.1</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>40725</v>
       </c>
@@ -3852,17 +3672,14 @@
       <c r="O56" s="3">
         <v>97.3</v>
       </c>
-      <c r="P56" s="8">
-        <v>5.7</v>
-      </c>
-      <c r="Q56" s="6">
+      <c r="P56" s="6">
         <v>623</v>
       </c>
-      <c r="R56" s="8">
+      <c r="Q56" s="8">
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>40756</v>
       </c>
@@ -3909,17 +3726,14 @@
       <c r="O57" s="3">
         <v>86.33</v>
       </c>
-      <c r="P57" s="8">
-        <v>3.7</v>
-      </c>
-      <c r="Q57" s="6">
+      <c r="P57" s="6">
         <v>585</v>
       </c>
-      <c r="R57" s="8">
+      <c r="Q57" s="8">
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>40787</v>
       </c>
@@ -3966,17 +3780,14 @@
       <c r="O58" s="3">
         <v>85.52</v>
       </c>
-      <c r="P58" s="8">
-        <v>-1.6</v>
-      </c>
-      <c r="Q58" s="6">
+      <c r="P58" s="6">
         <v>650</v>
       </c>
-      <c r="R58" s="8">
+      <c r="Q58" s="8">
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>40817</v>
       </c>
@@ -4023,17 +3834,14 @@
       <c r="O59" s="3">
         <v>86.32</v>
       </c>
-      <c r="P59" s="8">
-        <v>4.3</v>
-      </c>
-      <c r="Q59" s="6">
+      <c r="P59" s="6">
         <v>610</v>
       </c>
-      <c r="R59" s="8">
+      <c r="Q59" s="8">
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>40848</v>
       </c>
@@ -4080,17 +3888,14 @@
       <c r="O60" s="3">
         <v>97.16</v>
       </c>
-      <c r="P60" s="8">
-        <v>4.8</v>
-      </c>
-      <c r="Q60" s="6">
+      <c r="P60" s="6">
         <v>711</v>
       </c>
-      <c r="R60" s="8">
+      <c r="Q60" s="8">
         <v>8.6</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>40878</v>
       </c>
@@ -4137,17 +3942,14 @@
       <c r="O61" s="3">
         <v>98.56</v>
       </c>
-      <c r="P61" s="8">
-        <v>6.3</v>
-      </c>
-      <c r="Q61" s="6">
+      <c r="P61" s="6">
         <v>694</v>
       </c>
-      <c r="R61" s="8">
+      <c r="Q61" s="8">
         <v>8.5</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>40909</v>
       </c>
@@ -4194,17 +3996,14 @@
       <c r="O62" s="3">
         <v>100.27</v>
       </c>
-      <c r="P62" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="Q62" s="6">
+      <c r="P62" s="6">
         <v>723</v>
       </c>
-      <c r="R62" s="8">
+      <c r="Q62" s="8">
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>40940</v>
       </c>
@@ -4251,17 +4050,14 @@
       <c r="O63" s="3">
         <v>102.2</v>
       </c>
-      <c r="P63" s="8">
-        <v>9.4</v>
-      </c>
-      <c r="Q63" s="6">
+      <c r="P63" s="6">
         <v>704</v>
       </c>
-      <c r="R63" s="8">
+      <c r="Q63" s="8">
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>40969</v>
       </c>
@@ -4308,17 +4104,14 @@
       <c r="O64" s="3">
         <v>106.16</v>
       </c>
-      <c r="P64" s="8">
-        <v>10.5</v>
-      </c>
-      <c r="Q64" s="6">
+      <c r="P64" s="6">
         <v>695</v>
       </c>
-      <c r="R64" s="8">
+      <c r="Q64" s="8">
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>41000</v>
       </c>
@@ -4365,17 +4158,14 @@
       <c r="O65" s="3">
         <v>103.32</v>
       </c>
-      <c r="P65" s="8">
-        <v>0.3</v>
-      </c>
-      <c r="Q65" s="6">
+      <c r="P65" s="6">
         <v>753</v>
       </c>
-      <c r="R65" s="8">
+      <c r="Q65" s="8">
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>41030</v>
       </c>
@@ -4422,17 +4212,14 @@
       <c r="O66" s="3">
         <v>94.66</v>
       </c>
-      <c r="P66" s="8">
-        <v>12.3</v>
-      </c>
-      <c r="Q66" s="6">
+      <c r="P66" s="6">
         <v>708</v>
       </c>
-      <c r="R66" s="8">
+      <c r="Q66" s="8">
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>41061</v>
       </c>
@@ -4479,17 +4266,14 @@
       <c r="O67" s="3">
         <v>82.3</v>
       </c>
-      <c r="P67" s="8">
-        <v>13</v>
-      </c>
-      <c r="Q67" s="6">
+      <c r="P67" s="6">
         <v>757</v>
       </c>
-      <c r="R67" s="8">
+      <c r="Q67" s="8">
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>41091</v>
       </c>
@@ -4536,17 +4320,14 @@
       <c r="O68" s="3">
         <v>87.9</v>
       </c>
-      <c r="P68" s="8">
-        <v>18</v>
-      </c>
-      <c r="Q68" s="6">
+      <c r="P68" s="6">
         <v>740</v>
       </c>
-      <c r="R68" s="8">
+      <c r="Q68" s="8">
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>41122</v>
       </c>
@@ -4593,17 +4374,14 @@
       <c r="O69" s="3">
         <v>94.13</v>
       </c>
-      <c r="P69" s="8">
-        <v>13.6</v>
-      </c>
-      <c r="Q69" s="6">
+      <c r="P69" s="6">
         <v>754</v>
       </c>
-      <c r="R69" s="8">
+      <c r="Q69" s="8">
         <v>8.1</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>41153</v>
       </c>
@@ -4650,17 +4428,14 @@
       <c r="O70" s="3">
         <v>94.51</v>
       </c>
-      <c r="P70" s="8">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="Q70" s="6">
+      <c r="P70" s="6">
         <v>847</v>
       </c>
-      <c r="R70" s="8">
+      <c r="Q70" s="8">
         <v>7.8</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>41183</v>
       </c>
@@ -4707,17 +4482,14 @@
       <c r="O71" s="3">
         <v>89.49</v>
       </c>
-      <c r="P71" s="8">
-        <v>16.899999999999999</v>
-      </c>
-      <c r="Q71" s="6">
+      <c r="P71" s="6">
         <v>915</v>
       </c>
-      <c r="R71" s="8">
+      <c r="Q71" s="8">
         <v>7.8</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>41214</v>
       </c>
@@ -4764,17 +4536,14 @@
       <c r="O72" s="3">
         <v>86.53</v>
       </c>
-      <c r="P72" s="8">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="Q72" s="6">
+      <c r="P72" s="6">
         <v>833</v>
       </c>
-      <c r="R72" s="8">
+      <c r="Q72" s="8">
         <v>7.7</v>
       </c>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>41244</v>
       </c>
@@ -4821,17 +4590,14 @@
       <c r="O73" s="3">
         <v>87.86</v>
       </c>
-      <c r="P73" s="8">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="Q73" s="6">
+      <c r="P73" s="6">
         <v>976</v>
       </c>
-      <c r="R73" s="8">
+      <c r="Q73" s="8">
         <v>7.9</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>41275</v>
       </c>
@@ -4878,17 +4644,14 @@
       <c r="O74" s="3">
         <v>94.76</v>
       </c>
-      <c r="P74" s="8">
-        <v>15.8</v>
-      </c>
-      <c r="Q74" s="6">
+      <c r="P74" s="6">
         <v>888</v>
       </c>
-      <c r="R74" s="8">
+      <c r="Q74" s="8">
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>41306</v>
       </c>
@@ -4935,17 +4698,14 @@
       <c r="O75" s="3">
         <v>95.31</v>
       </c>
-      <c r="P75" s="8">
-        <v>6</v>
-      </c>
-      <c r="Q75" s="6">
+      <c r="P75" s="6">
         <v>962</v>
       </c>
-      <c r="R75" s="8">
+      <c r="Q75" s="8">
         <v>7.7</v>
       </c>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>41334</v>
       </c>
@@ -4992,17 +4752,14 @@
       <c r="O76" s="3">
         <v>92.94</v>
       </c>
-      <c r="P76" s="8">
-        <v>12.6</v>
-      </c>
-      <c r="Q76" s="6">
+      <c r="P76" s="6">
         <v>1010</v>
       </c>
-      <c r="R76" s="8">
+      <c r="Q76" s="8">
         <v>7.5</v>
       </c>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>41365</v>
       </c>
@@ -5049,17 +4806,14 @@
       <c r="O77" s="3">
         <v>92.02</v>
       </c>
-      <c r="P77" s="8">
-        <v>9.9</v>
-      </c>
-      <c r="Q77" s="6">
+      <c r="P77" s="6">
         <v>835</v>
       </c>
-      <c r="R77" s="8">
+      <c r="Q77" s="8">
         <v>7.6</v>
       </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>41395</v>
       </c>
@@ -5106,17 +4860,14 @@
       <c r="O78" s="3">
         <v>94.51</v>
       </c>
-      <c r="P78" s="8">
-        <v>10.5</v>
-      </c>
-      <c r="Q78" s="6">
+      <c r="P78" s="6">
         <v>930</v>
       </c>
-      <c r="R78" s="8">
+      <c r="Q78" s="8">
         <v>7.5</v>
       </c>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>41426</v>
       </c>
@@ -5163,17 +4914,14 @@
       <c r="O79" s="3">
         <v>95.77</v>
       </c>
-      <c r="P79" s="8">
-        <v>2.1</v>
-      </c>
-      <c r="Q79" s="6">
+      <c r="P79" s="6">
         <v>839</v>
       </c>
-      <c r="R79" s="8">
+      <c r="Q79" s="8">
         <v>7.5</v>
       </c>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>41456</v>
       </c>
@@ -5220,17 +4968,14 @@
       <c r="O80" s="3">
         <v>104.67</v>
       </c>
-      <c r="P80" s="8">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="Q80" s="6">
+      <c r="P80" s="6">
         <v>880</v>
       </c>
-      <c r="R80" s="8">
+      <c r="Q80" s="8">
         <v>7.3</v>
       </c>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>41487</v>
       </c>
@@ -5277,17 +5022,14 @@
       <c r="O81" s="3">
         <v>106.57</v>
       </c>
-      <c r="P81" s="8">
-        <v>3.5</v>
-      </c>
-      <c r="Q81" s="6">
+      <c r="P81" s="6">
         <v>917</v>
       </c>
-      <c r="R81" s="8">
+      <c r="Q81" s="8">
         <v>7.2</v>
       </c>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>41518</v>
       </c>
@@ -5334,17 +5076,14 @@
       <c r="O82" s="3">
         <v>106.29</v>
       </c>
-      <c r="P82" s="8">
-        <v>12.3</v>
-      </c>
-      <c r="Q82" s="6">
+      <c r="P82" s="6">
         <v>850</v>
       </c>
-      <c r="R82" s="8">
+      <c r="Q82" s="8">
         <v>7.2</v>
       </c>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>41548</v>
       </c>
@@ -5391,17 +5130,14 @@
       <c r="O83" s="3">
         <v>100.54</v>
       </c>
-      <c r="P83" s="8">
-        <v>7.4</v>
-      </c>
-      <c r="Q83" s="6">
+      <c r="P83" s="6">
         <v>925</v>
       </c>
-      <c r="R83" s="8">
+      <c r="Q83" s="8">
         <v>7.2</v>
       </c>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>41579</v>
       </c>
@@ -5448,17 +5184,14 @@
       <c r="O84" s="3">
         <v>93.86</v>
       </c>
-      <c r="P84" s="8">
-        <v>2.1</v>
-      </c>
-      <c r="Q84" s="6">
+      <c r="P84" s="6">
         <v>1100</v>
       </c>
-      <c r="R84" s="8">
+      <c r="Q84" s="8">
         <v>6.9</v>
       </c>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>41609</v>
       </c>
@@ -5505,17 +5238,14 @@
       <c r="O85" s="3">
         <v>97.63</v>
       </c>
-      <c r="P85" s="8">
-        <v>11.6</v>
-      </c>
-      <c r="Q85" s="6">
+      <c r="P85" s="6">
         <v>1002</v>
       </c>
-      <c r="R85" s="8">
+      <c r="Q85" s="8">
         <v>6.7</v>
       </c>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>41640</v>
       </c>
@@ -5562,17 +5292,14 @@
       <c r="O86" s="3">
         <v>94.62</v>
       </c>
-      <c r="P86" s="8">
-        <v>14.1</v>
-      </c>
-      <c r="Q86" s="6">
+      <c r="P86" s="6">
         <v>888</v>
       </c>
-      <c r="R86" s="8">
+      <c r="Q86" s="8">
         <v>6.6</v>
       </c>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>41671</v>
       </c>
@@ -5619,17 +5346,14 @@
       <c r="O87" s="3">
         <v>100.82</v>
       </c>
-      <c r="P87" s="8">
-        <v>12.2</v>
-      </c>
-      <c r="Q87" s="6">
+      <c r="P87" s="6">
         <v>944</v>
       </c>
-      <c r="R87" s="8">
+      <c r="Q87" s="8">
         <v>6.7</v>
       </c>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>41699</v>
       </c>
@@ -5676,17 +5400,14 @@
       <c r="O88" s="3">
         <v>100.8</v>
       </c>
-      <c r="P88" s="8">
-        <v>14.5</v>
-      </c>
-      <c r="Q88" s="6">
+      <c r="P88" s="6">
         <v>970</v>
       </c>
-      <c r="R88" s="8">
+      <c r="Q88" s="8">
         <v>6.7</v>
       </c>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>41730</v>
       </c>
@@ -5733,17 +5454,14 @@
       <c r="O89" s="3">
         <v>102.07</v>
       </c>
-      <c r="P89" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="Q89" s="6">
+      <c r="P89" s="6">
         <v>1043</v>
       </c>
-      <c r="R89" s="8">
+      <c r="Q89" s="8">
         <v>6.2</v>
       </c>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>41760</v>
       </c>
@@ -5790,17 +5508,14 @@
       <c r="O90" s="3">
         <v>102.18</v>
       </c>
-      <c r="P90" s="8">
-        <v>-0.3</v>
-      </c>
-      <c r="Q90" s="6">
+      <c r="P90" s="6">
         <v>1007</v>
       </c>
-      <c r="R90" s="8">
+      <c r="Q90" s="8">
         <v>6.3</v>
       </c>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>41791</v>
       </c>
@@ -5847,17 +5562,14 @@
       <c r="O91" s="3">
         <v>105.79</v>
       </c>
-      <c r="P91" s="8">
-        <v>7.7</v>
-      </c>
-      <c r="Q91" s="6">
+      <c r="P91" s="6">
         <v>911</v>
       </c>
-      <c r="R91" s="8">
+      <c r="Q91" s="8">
         <v>6.1</v>
       </c>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>41821</v>
       </c>
@@ -5904,17 +5616,14 @@
       <c r="O92" s="3">
         <v>103.59</v>
       </c>
-      <c r="P92" s="8">
-        <v>9</v>
-      </c>
-      <c r="Q92" s="6">
+      <c r="P92" s="6">
         <v>1085</v>
       </c>
-      <c r="R92" s="8">
+      <c r="Q92" s="8">
         <v>6.2</v>
       </c>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>41852</v>
       </c>
@@ -5961,17 +5670,14 @@
       <c r="O93" s="3">
         <v>96.54</v>
       </c>
-      <c r="P93" s="8">
-        <v>4.7</v>
-      </c>
-      <c r="Q93" s="6">
+      <c r="P93" s="6">
         <v>984</v>
       </c>
-      <c r="R93" s="8">
+      <c r="Q93" s="8">
         <v>6.1</v>
       </c>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>41883</v>
       </c>
@@ -6018,17 +5724,14 @@
       <c r="O94" s="3">
         <v>93.21</v>
       </c>
-      <c r="P94" s="8">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="Q94" s="6">
+      <c r="P94" s="6">
         <v>1023</v>
       </c>
-      <c r="R94" s="8">
+      <c r="Q94" s="8">
         <v>5.9</v>
       </c>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>41913</v>
       </c>
@@ -6075,17 +5778,14 @@
       <c r="O95" s="3">
         <v>84.4</v>
       </c>
-      <c r="P95" s="8">
-        <v>13.7</v>
-      </c>
-      <c r="Q95" s="6">
+      <c r="P95" s="6">
         <v>1074</v>
       </c>
-      <c r="R95" s="8">
+      <c r="Q95" s="8">
         <v>5.7</v>
       </c>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>41944</v>
       </c>
@@ -6132,17 +5832,14 @@
       <c r="O96" s="3">
         <v>75.790000000000006</v>
       </c>
-      <c r="P96" s="8">
-        <v>9</v>
-      </c>
-      <c r="Q96" s="6">
+      <c r="P96" s="6">
         <v>1001</v>
       </c>
-      <c r="R96" s="8">
+      <c r="Q96" s="8">
         <v>5.8</v>
       </c>
     </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>41974</v>
       </c>
@@ -6189,17 +5886,14 @@
       <c r="O97" s="3">
         <v>59.29</v>
       </c>
-      <c r="P97" s="8">
-        <v>11.9</v>
-      </c>
-      <c r="Q97" s="6">
+      <c r="P97" s="6">
         <v>1073</v>
       </c>
-      <c r="R97" s="8">
+      <c r="Q97" s="8">
         <v>5.6</v>
       </c>
     </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>42005</v>
       </c>
@@ -6246,17 +5940,14 @@
       <c r="O98" s="3">
         <v>47.22</v>
       </c>
-      <c r="P98" s="8">
-        <v>6.6</v>
-      </c>
-      <c r="Q98" s="6">
+      <c r="P98" s="6">
         <v>1085</v>
       </c>
-      <c r="R98" s="8">
+      <c r="Q98" s="8">
         <v>5.7</v>
       </c>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>42036</v>
       </c>
@@ -6303,17 +5994,14 @@
       <c r="O99" s="3">
         <v>50.58</v>
       </c>
-      <c r="P99" s="8">
-        <v>3.9</v>
-      </c>
-      <c r="Q99" s="6">
+      <c r="P99" s="6">
         <v>886</v>
       </c>
-      <c r="R99" s="8">
+      <c r="Q99" s="8">
         <v>5.5</v>
       </c>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>42064</v>
       </c>
@@ -6360,17 +6048,14 @@
       <c r="O100" s="3">
         <v>47.82</v>
       </c>
-      <c r="P100" s="8">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="Q100" s="6">
+      <c r="P100" s="6">
         <v>960</v>
       </c>
-      <c r="R100" s="8">
+      <c r="Q100" s="8">
         <v>5.4</v>
       </c>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>42095</v>
       </c>
@@ -6417,17 +6102,14 @@
       <c r="O101" s="3">
         <v>54.45</v>
       </c>
-      <c r="P101" s="8">
-        <v>-1.2</v>
-      </c>
-      <c r="Q101" s="6">
+      <c r="P101" s="6">
         <v>1190</v>
       </c>
-      <c r="R101" s="8">
+      <c r="Q101" s="8">
         <v>5.4</v>
       </c>
     </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>42125</v>
       </c>
@@ -6474,17 +6156,14 @@
       <c r="O102" s="3">
         <v>59.27</v>
       </c>
-      <c r="P102" s="8">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="Q102" s="6">
+      <c r="P102" s="6">
         <v>1079</v>
       </c>
-      <c r="R102" s="8">
+      <c r="Q102" s="8">
         <v>5.6</v>
       </c>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>42156</v>
       </c>
@@ -6531,17 +6210,14 @@
       <c r="O103" s="3">
         <v>59.82</v>
       </c>
-      <c r="P103" s="8">
-        <v>-8.4</v>
-      </c>
-      <c r="Q103" s="6">
+      <c r="P103" s="6">
         <v>1205</v>
       </c>
-      <c r="R103" s="8">
+      <c r="Q103" s="8">
         <v>5.3</v>
       </c>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>42186</v>
       </c>
@@ -6588,17 +6264,14 @@
       <c r="O104" s="3">
         <v>50.9</v>
       </c>
-      <c r="P104" s="8">
-        <v>-8.3000000000000007</v>
-      </c>
-      <c r="Q104" s="6">
+      <c r="P104" s="6">
         <v>1146</v>
       </c>
-      <c r="R104" s="8">
+      <c r="Q104" s="8">
         <v>5.2</v>
       </c>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>42217</v>
       </c>
@@ -6645,17 +6318,14 @@
       <c r="O105" s="3">
         <v>42.87</v>
       </c>
-      <c r="P105" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q105" s="6">
+      <c r="P105" s="6">
         <v>1130</v>
       </c>
-      <c r="R105" s="8">
+      <c r="Q105" s="8">
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>42248</v>
       </c>
@@ -6702,17 +6372,14 @@
       <c r="O106" s="3">
         <v>45.48</v>
       </c>
-      <c r="P106" s="8">
-        <v>0.4</v>
-      </c>
-      <c r="Q106" s="6">
+      <c r="P106" s="6">
         <v>1224</v>
       </c>
-      <c r="R106" s="8">
+      <c r="Q106" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>42278</v>
       </c>
@@ -6759,17 +6426,14 @@
       <c r="O107" s="3">
         <v>46.22</v>
       </c>
-      <c r="P107" s="8">
-        <v>5.7</v>
-      </c>
-      <c r="Q107" s="6">
+      <c r="P107" s="6">
         <v>1058</v>
       </c>
-      <c r="R107" s="8">
+      <c r="Q107" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>42309</v>
       </c>
@@ -6816,17 +6480,14 @@
       <c r="O108" s="3">
         <v>42.44</v>
       </c>
-      <c r="P108" s="8">
-        <v>10.5</v>
-      </c>
-      <c r="Q108" s="6">
+      <c r="P108" s="6">
         <v>1172</v>
       </c>
-      <c r="R108" s="8">
+      <c r="Q108" s="8">
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>42339</v>
       </c>
@@ -6873,17 +6534,14 @@
       <c r="O109" s="3">
         <v>37.19</v>
       </c>
-      <c r="P109" s="8">
-        <v>5.9</v>
-      </c>
-      <c r="Q109" s="6">
+      <c r="P109" s="6">
         <v>1146</v>
       </c>
-      <c r="R109" s="8">
+      <c r="Q109" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>42370</v>
       </c>
@@ -6930,17 +6588,14 @@
       <c r="O110" s="3">
         <v>31.68</v>
       </c>
-      <c r="P110" s="8">
-        <v>1</v>
-      </c>
-      <c r="Q110" s="6">
+      <c r="P110" s="6">
         <v>1092</v>
       </c>
-      <c r="R110" s="8">
+      <c r="Q110" s="8">
         <v>4.8</v>
       </c>
     </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>42401</v>
       </c>
@@ -6987,17 +6642,14 @@
       <c r="O111" s="3">
         <v>30.32</v>
       </c>
-      <c r="P111" s="8">
-        <v>-2.1</v>
-      </c>
-      <c r="Q111" s="6">
+      <c r="P111" s="6">
         <v>1225</v>
       </c>
-      <c r="R111" s="8">
+      <c r="Q111" s="8">
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>42430</v>
       </c>
@@ -7044,17 +6696,14 @@
       <c r="O112" s="3">
         <v>37.549999999999997</v>
       </c>
-      <c r="P112" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="Q112" s="6">
+      <c r="P112" s="6">
         <v>1111</v>
       </c>
-      <c r="R112" s="8">
+      <c r="Q112" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>42461</v>
       </c>
@@ -7101,17 +6750,14 @@
       <c r="O113" s="3">
         <v>40.75</v>
       </c>
-      <c r="P113" s="8">
-        <v>3.8</v>
-      </c>
-      <c r="Q113" s="6">
+      <c r="P113" s="6">
         <v>1163</v>
       </c>
-      <c r="R113" s="8">
+      <c r="Q113" s="8">
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>42491</v>
       </c>
@@ -7158,17 +6804,14 @@
       <c r="O114" s="3">
         <v>46.71</v>
       </c>
-      <c r="P114" s="8">
-        <v>26.4</v>
-      </c>
-      <c r="Q114" s="6">
+      <c r="P114" s="6">
         <v>1148</v>
       </c>
-      <c r="R114" s="8">
+      <c r="Q114" s="8">
         <v>4.8</v>
       </c>
     </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>42522</v>
       </c>
@@ -7215,17 +6858,14 @@
       <c r="O115" s="3">
         <v>48.76</v>
       </c>
-      <c r="P115" s="8">
-        <v>13.5</v>
-      </c>
-      <c r="Q115" s="6">
+      <c r="P115" s="6">
         <v>1203</v>
       </c>
-      <c r="R115" s="8">
+      <c r="Q115" s="8">
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>42552</v>
       </c>
@@ -7272,17 +6912,14 @@
       <c r="O116" s="3">
         <v>44.65</v>
       </c>
-      <c r="P116" s="8">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="Q116" s="6">
+      <c r="P116" s="6">
         <v>1239</v>
       </c>
-      <c r="R116" s="8">
+      <c r="Q116" s="8">
         <v>4.8</v>
       </c>
     </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>42583</v>
       </c>
@@ -7329,17 +6966,14 @@
       <c r="O117" s="3">
         <v>44.72</v>
       </c>
-      <c r="P117" s="8">
-        <v>6.9</v>
-      </c>
-      <c r="Q117" s="6">
+      <c r="P117" s="6">
         <v>1171</v>
       </c>
-      <c r="R117" s="8">
+      <c r="Q117" s="8">
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>42614</v>
       </c>
@@ -7386,17 +7020,14 @@
       <c r="O118" s="3">
         <v>45.18</v>
       </c>
-      <c r="P118" s="8">
-        <v>15.4</v>
-      </c>
-      <c r="Q118" s="6">
+      <c r="P118" s="6">
         <v>1068</v>
       </c>
-      <c r="R118" s="8">
+      <c r="Q118" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>42644</v>
       </c>
@@ -7443,17 +7074,14 @@
       <c r="O119" s="3">
         <v>49.78</v>
       </c>
-      <c r="P119" s="8">
-        <v>5</v>
-      </c>
-      <c r="Q119" s="6">
+      <c r="P119" s="6">
         <v>1313</v>
       </c>
-      <c r="R119" s="8">
+      <c r="Q119" s="8">
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>42675</v>
       </c>
@@ -7500,17 +7128,14 @@
       <c r="O120" s="3">
         <v>45.66</v>
       </c>
-      <c r="P120" s="8">
-        <v>14</v>
-      </c>
-      <c r="Q120" s="6">
+      <c r="P120" s="6">
         <v>1140</v>
       </c>
-      <c r="R120" s="8">
+      <c r="Q120" s="8">
         <v>4.7</v>
       </c>
     </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>42705</v>
       </c>
@@ -7557,17 +7182,14 @@
       <c r="O121" s="3">
         <v>51.97</v>
       </c>
-      <c r="P121" s="8">
-        <v>8.9</v>
-      </c>
-      <c r="Q121" s="6">
+      <c r="P121" s="6">
         <v>1252</v>
       </c>
-      <c r="R121" s="8">
+      <c r="Q121" s="8">
         <v>4.7</v>
       </c>
     </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>42736</v>
       </c>
@@ -7614,17 +7236,14 @@
       <c r="O122" s="3">
         <v>52.5</v>
       </c>
-      <c r="P122" s="8">
-        <v>7.4</v>
-      </c>
-      <c r="Q122" s="6">
+      <c r="P122" s="6">
         <v>1193</v>
       </c>
-      <c r="R122" s="8">
+      <c r="Q122" s="8">
         <v>4.7</v>
       </c>
     </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>42767</v>
       </c>
@@ -7671,17 +7290,14 @@
       <c r="O123" s="3">
         <v>53.47</v>
       </c>
-      <c r="P123" s="8">
-        <v>18.8</v>
-      </c>
-      <c r="Q123" s="6">
+      <c r="P123" s="6">
         <v>1281</v>
       </c>
-      <c r="R123" s="8">
+      <c r="Q123" s="8">
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>42795</v>
       </c>
@@ -7728,17 +7344,14 @@
       <c r="O124" s="3">
         <v>49.33</v>
       </c>
-      <c r="P124" s="8">
-        <v>12.8</v>
-      </c>
-      <c r="Q124" s="6">
+      <c r="P124" s="6">
         <v>1190</v>
       </c>
-      <c r="R124" s="8">
+      <c r="Q124" s="8">
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>42826</v>
       </c>
@@ -7785,17 +7398,14 @@
       <c r="O125" s="3">
         <v>51.06</v>
       </c>
-      <c r="P125" s="8">
-        <v>9.6</v>
-      </c>
-      <c r="Q125" s="6">
+      <c r="P125" s="6">
         <v>1145</v>
       </c>
-      <c r="R125" s="8">
+      <c r="Q125" s="8">
         <v>4.5</v>
       </c>
     </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>42856</v>
       </c>
@@ -7842,17 +7452,14 @@
       <c r="O126" s="3">
         <v>48.48</v>
       </c>
-      <c r="P126" s="8">
-        <v>-2.2000000000000002</v>
-      </c>
-      <c r="Q126" s="6">
+      <c r="P126" s="6">
         <v>1160</v>
       </c>
-      <c r="R126" s="8">
+      <c r="Q126" s="8">
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>42887</v>
       </c>
@@ -7899,17 +7506,14 @@
       <c r="O127" s="3">
         <v>45.18</v>
       </c>
-      <c r="P127" s="8">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="Q127" s="6">
+      <c r="P127" s="6">
         <v>1247</v>
       </c>
-      <c r="R127" s="8">
+      <c r="Q127" s="8">
         <v>4.3</v>
       </c>
     </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>42917</v>
       </c>
@@ -7956,17 +7560,14 @@
       <c r="O128" s="3">
         <v>46.63</v>
       </c>
-      <c r="P128" s="8">
-        <v>7.6</v>
-      </c>
-      <c r="Q128" s="6">
+      <c r="P128" s="6">
         <v>1202</v>
       </c>
-      <c r="R128" s="8">
+      <c r="Q128" s="8">
         <v>4.3</v>
       </c>
     </row>
-    <row r="129" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>42948</v>
       </c>
@@ -8013,17 +7614,14 @@
       <c r="O129" s="3">
         <v>48.04</v>
       </c>
-      <c r="P129" s="8">
-        <v>32.1</v>
-      </c>
-      <c r="Q129" s="6">
+      <c r="P129" s="6">
         <v>1159</v>
       </c>
-      <c r="R129" s="8">
+      <c r="Q129" s="8">
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="130" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>42979</v>
       </c>
@@ -8070,17 +7668,14 @@
       <c r="O130" s="3">
         <v>49.82</v>
       </c>
-      <c r="P130" s="8">
-        <v>25.8</v>
-      </c>
-      <c r="Q130" s="6">
+      <c r="P130" s="6">
         <v>1175</v>
       </c>
-      <c r="R130" s="8">
+      <c r="Q130" s="8">
         <v>4.2</v>
       </c>
     </row>
-    <row r="131" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>43009</v>
       </c>
@@ -8127,17 +7722,14 @@
       <c r="O131" s="3">
         <v>51.58</v>
       </c>
-      <c r="P131" s="8">
-        <v>-2.2000000000000002</v>
-      </c>
-      <c r="Q131" s="6">
+      <c r="P131" s="6">
         <v>1248</v>
       </c>
-      <c r="R131" s="8">
+      <c r="Q131" s="8">
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="132" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>43040</v>
       </c>
@@ -8184,17 +7776,14 @@
       <c r="O132" s="3">
         <v>56.64</v>
       </c>
-      <c r="P132" s="8">
-        <v>2.5</v>
-      </c>
-      <c r="Q132" s="6">
+      <c r="P132" s="6">
         <v>1278</v>
       </c>
-      <c r="R132" s="8">
+      <c r="Q132" s="8">
         <v>4.2</v>
       </c>
     </row>
-    <row r="133" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>43070</v>
       </c>
@@ -8241,17 +7830,14 @@
       <c r="O133" s="3">
         <v>57.88</v>
       </c>
-      <c r="P133" s="8">
-        <v>25</v>
-      </c>
-      <c r="Q133" s="6">
+      <c r="P133" s="6">
         <v>1182</v>
       </c>
-      <c r="R133" s="8">
+      <c r="Q133" s="8">
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="134" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>43101</v>
       </c>
@@ -8298,17 +7884,14 @@
       <c r="O134" s="3">
         <v>63.7</v>
       </c>
-      <c r="P134" s="8">
-        <v>36.299999999999997</v>
-      </c>
-      <c r="Q134" s="6">
+      <c r="P134" s="6">
         <v>1309</v>
       </c>
-      <c r="R134" s="8">
+      <c r="Q134" s="8">
         <v>4</v>
       </c>
     </row>
-    <row r="135" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>43132</v>
       </c>
@@ -8355,17 +7938,14 @@
       <c r="O135" s="3">
         <v>62.23</v>
       </c>
-      <c r="P135" s="8">
-        <v>0.6</v>
-      </c>
-      <c r="Q135" s="6">
+      <c r="P135" s="6">
         <v>1289</v>
       </c>
-      <c r="R135" s="8">
+      <c r="Q135" s="8">
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="136" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>43160</v>
       </c>
@@ -8412,17 +7992,14 @@
       <c r="O136" s="3">
         <v>62.73</v>
       </c>
-      <c r="P136" s="8">
-        <v>32.200000000000003</v>
-      </c>
-      <c r="Q136" s="6">
+      <c r="P136" s="6">
         <v>1327</v>
       </c>
-      <c r="R136" s="8">
+      <c r="Q136" s="8">
         <v>4</v>
       </c>
     </row>
-    <row r="137" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>43191</v>
       </c>
@@ -8469,17 +8046,14 @@
       <c r="O137" s="3">
         <v>66.25</v>
       </c>
-      <c r="P137" s="8">
-        <v>38.9</v>
-      </c>
-      <c r="Q137" s="6">
+      <c r="P137" s="6">
         <v>1285</v>
       </c>
-      <c r="R137" s="8">
+      <c r="Q137" s="8">
         <v>4</v>
       </c>
     </row>
-    <row r="138" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>43221</v>
       </c>
@@ -8526,17 +8100,14 @@
       <c r="O138" s="3">
         <v>69.98</v>
       </c>
-      <c r="P138" s="8">
-        <v>25.5</v>
-      </c>
-      <c r="Q138" s="6">
+      <c r="P138" s="6">
         <v>1354</v>
       </c>
-      <c r="R138" s="8">
+      <c r="Q138" s="8">
         <v>3.8</v>
       </c>
     </row>
-    <row r="139" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>43252</v>
       </c>
@@ -8583,17 +8154,14 @@
       <c r="O139" s="3">
         <v>67.87</v>
       </c>
-      <c r="P139" s="8">
-        <v>28</v>
-      </c>
-      <c r="Q139" s="6">
+      <c r="P139" s="6">
         <v>1199</v>
       </c>
-      <c r="R139" s="8">
+      <c r="Q139" s="8">
         <v>4</v>
       </c>
     </row>
-    <row r="140" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>43282</v>
       </c>
@@ -8640,17 +8208,14 @@
       <c r="O140" s="3">
         <v>70.98</v>
       </c>
-      <c r="P140" s="8">
-        <v>26.1</v>
-      </c>
-      <c r="Q140" s="6">
+      <c r="P140" s="6">
         <v>1193</v>
       </c>
-      <c r="R140" s="8">
+      <c r="Q140" s="8">
         <v>3.8</v>
       </c>
     </row>
-    <row r="141" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>43313</v>
       </c>
@@ -8697,17 +8262,14 @@
       <c r="O141" s="3">
         <v>68.06</v>
       </c>
-      <c r="P141" s="8">
-        <v>21</v>
-      </c>
-      <c r="Q141" s="6">
+      <c r="P141" s="6">
         <v>1288</v>
       </c>
-      <c r="R141" s="8">
+      <c r="Q141" s="8">
         <v>3.8</v>
       </c>
     </row>
-    <row r="142" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>43344</v>
       </c>
@@ -8754,17 +8316,14 @@
       <c r="O142" s="3">
         <v>70.23</v>
       </c>
-      <c r="P142" s="8">
-        <v>17.5</v>
-      </c>
-      <c r="Q142" s="6">
+      <c r="P142" s="6">
         <v>1238</v>
       </c>
-      <c r="R142" s="8">
+      <c r="Q142" s="8">
         <v>3.7</v>
       </c>
     </row>
-    <row r="143" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>43374</v>
       </c>
@@ -8811,17 +8370,14 @@
       <c r="O143" s="3">
         <v>70.75</v>
       </c>
-      <c r="P143" s="8">
-        <v>20.8</v>
-      </c>
-      <c r="Q143" s="6">
+      <c r="P143" s="6">
         <v>1208</v>
       </c>
-      <c r="R143" s="8">
+      <c r="Q143" s="8">
         <v>3.8</v>
       </c>
     </row>
-    <row r="144" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>43405</v>
       </c>
@@ -8868,15 +8424,14 @@
       <c r="O144" s="3">
         <v>56.96</v>
       </c>
-      <c r="P144" s="3"/>
-      <c r="Q144" s="6">
+      <c r="P144" s="6">
         <v>1183</v>
       </c>
-      <c r="R144" s="8">
+      <c r="Q144" s="8">
         <v>3.8</v>
       </c>
     </row>
-    <row r="145" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>43435</v>
       </c>
@@ -8923,15 +8478,14 @@
       <c r="O145" s="3">
         <v>49.52</v>
       </c>
-      <c r="P145" s="3"/>
-      <c r="Q145" s="6">
+      <c r="P145" s="6">
         <v>1095</v>
       </c>
-      <c r="R145" s="8">
+      <c r="Q145" s="8">
         <v>3.9</v>
       </c>
     </row>
-    <row r="146" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>43466</v>
       </c>
@@ -8978,15 +8532,14 @@
       <c r="O146" s="3">
         <v>51.38</v>
       </c>
-      <c r="P146" s="3"/>
-      <c r="Q146" s="6">
+      <c r="P146" s="6">
         <v>1244</v>
       </c>
-      <c r="R146" s="8">
+      <c r="Q146" s="8">
         <v>4</v>
       </c>
     </row>
-    <row r="147" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>43497</v>
       </c>
@@ -9033,15 +8586,14 @@
       <c r="O147" s="3">
         <v>54.95</v>
       </c>
-      <c r="P147" s="3"/>
-      <c r="Q147" s="6">
+      <c r="P147" s="6">
         <v>1142</v>
       </c>
-      <c r="R147" s="8">
+      <c r="Q147" s="8">
         <v>3.8</v>
       </c>
     </row>
-    <row r="148" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>43525</v>
       </c>
@@ -9088,15 +8640,14 @@
       <c r="O148" s="3">
         <v>58.15</v>
       </c>
-      <c r="P148" s="3"/>
-      <c r="Q148" s="6">
+      <c r="P148" s="6">
         <v>1203</v>
       </c>
-      <c r="R148" s="8">
+      <c r="Q148" s="8">
         <v>3.8</v>
       </c>
     </row>
-    <row r="149" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>43556</v>
       </c>
@@ -9143,15 +8694,14 @@
       <c r="O149" s="3">
         <v>63.86</v>
       </c>
-      <c r="P149" s="3"/>
-      <c r="Q149" s="6">
+      <c r="P149" s="6">
         <v>1282</v>
       </c>
-      <c r="R149" s="8">
+      <c r="Q149" s="8">
         <v>3.7</v>
       </c>
     </row>
-    <row r="150" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>43586</v>
       </c>
@@ -9198,15 +8748,14 @@
       <c r="O150" s="3">
         <v>60.83</v>
       </c>
-      <c r="P150" s="3"/>
-      <c r="Q150" s="6">
+      <c r="P150" s="6">
         <v>1303</v>
       </c>
-      <c r="R150" s="8">
+      <c r="Q150" s="8">
         <v>3.7</v>
       </c>
     </row>
-    <row r="151" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>43617</v>
       </c>
@@ -9253,15 +8802,14 @@
       <c r="O151" s="3">
         <v>54.66</v>
       </c>
-      <c r="P151" s="3"/>
-      <c r="Q151" s="6">
+      <c r="P151" s="6">
         <v>1237</v>
       </c>
-      <c r="R151" s="8">
+      <c r="Q151" s="8">
         <v>3.6</v>
       </c>
     </row>
-    <row r="152" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>43647</v>
       </c>
@@ -9308,15 +8856,14 @@
       <c r="O152" s="3">
         <v>57.35</v>
       </c>
-      <c r="P152" s="3"/>
-      <c r="Q152" s="6">
+      <c r="P152" s="6">
         <v>1224</v>
       </c>
-      <c r="R152" s="8">
+      <c r="Q152" s="8">
         <v>3.6</v>
       </c>
     </row>
-    <row r="153" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>43678</v>
       </c>
@@ -9363,15 +8910,14 @@
       <c r="O153" s="3">
         <v>54.81</v>
       </c>
-      <c r="P153" s="3"/>
-      <c r="Q153" s="6">
+      <c r="P153" s="6">
         <v>1371</v>
       </c>
-      <c r="R153" s="8">
+      <c r="Q153" s="8">
         <v>3.7</v>
       </c>
     </row>
-    <row r="154" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>43709</v>
       </c>
@@ -9418,15 +8964,14 @@
       <c r="O154" s="3">
         <v>56.95</v>
       </c>
-      <c r="P154" s="3"/>
-      <c r="Q154" s="6">
+      <c r="P154" s="6">
         <v>1285</v>
       </c>
-      <c r="R154" s="8">
+      <c r="Q154" s="8">
         <v>3.5</v>
       </c>
     </row>
-    <row r="155" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>43739</v>
       </c>
@@ -9473,15 +9018,14 @@
       <c r="O155" s="3">
         <v>53.96</v>
       </c>
-      <c r="P155" s="3"/>
-      <c r="Q155" s="6">
+      <c r="P155" s="6">
         <v>1318</v>
       </c>
-      <c r="R155" s="8">
+      <c r="Q155" s="8">
         <v>3.6</v>
       </c>
     </row>
-    <row r="156" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>43770</v>
       </c>
@@ -9528,15 +9072,14 @@
       <c r="O156" s="3">
         <v>57.03</v>
       </c>
-      <c r="P156" s="3"/>
-      <c r="Q156" s="6">
+      <c r="P156" s="6">
         <v>1350</v>
       </c>
-      <c r="R156" s="8">
+      <c r="Q156" s="8">
         <v>3.6</v>
       </c>
     </row>
-    <row r="157" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>43800</v>
       </c>
@@ -9583,15 +9126,14 @@
       <c r="O157" s="3">
         <v>59.88</v>
       </c>
-      <c r="P157" s="3"/>
-      <c r="Q157" s="6">
+      <c r="P157" s="6">
         <v>1547</v>
       </c>
-      <c r="R157" s="8">
+      <c r="Q157" s="8">
         <v>3.6</v>
       </c>
     </row>
-    <row r="158" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>43831</v>
       </c>
@@ -9638,15 +9180,14 @@
       <c r="O158" s="3">
         <v>57.52</v>
       </c>
-      <c r="P158" s="3"/>
-      <c r="Q158" s="6">
+      <c r="P158" s="6">
         <v>1589</v>
       </c>
-      <c r="R158" s="8">
+      <c r="Q158" s="8">
         <v>3.5</v>
       </c>
     </row>
-    <row r="159" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>43862</v>
       </c>
@@ -9693,15 +9234,14 @@
       <c r="O159" s="3">
         <v>50.54</v>
       </c>
-      <c r="P159" s="3"/>
-      <c r="Q159" s="6">
+      <c r="P159" s="6">
         <v>1589</v>
       </c>
-      <c r="R159" s="8">
+      <c r="Q159" s="8">
         <v>3.5</v>
       </c>
     </row>
-    <row r="160" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>43891</v>
       </c>
@@ -9748,15 +9288,14 @@
       <c r="O160" s="3">
         <v>29.21</v>
       </c>
-      <c r="P160" s="3"/>
-      <c r="Q160" s="6">
+      <c r="P160" s="6">
         <v>1277</v>
       </c>
-      <c r="R160" s="8">
+      <c r="Q160" s="8">
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="161" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>43922</v>
       </c>
@@ -9803,15 +9342,14 @@
       <c r="O161" s="3">
         <v>16.55</v>
       </c>
-      <c r="P161" s="3"/>
-      <c r="Q161" s="6">
+      <c r="P161" s="6">
         <v>938</v>
       </c>
-      <c r="R161" s="8">
+      <c r="Q161" s="8">
         <v>14.8</v>
       </c>
     </row>
-    <row r="162" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>43952</v>
       </c>
@@ -9828,7 +9366,7 @@
         <v>3.95</v>
       </c>
       <c r="F162" s="3">
-        <f t="shared" ref="F162:F193" si="5">E162-D162</f>
+        <f t="shared" ref="F162:F175" si="5">E162-D162</f>
         <v>1.4500000000000002</v>
       </c>
       <c r="G162" s="3">
@@ -9858,15 +9396,14 @@
       <c r="O162" s="3">
         <v>28.56</v>
       </c>
-      <c r="P162" s="3"/>
-      <c r="Q162" s="6">
+      <c r="P162" s="6">
         <v>1046</v>
       </c>
-      <c r="R162" s="8">
+      <c r="Q162" s="8">
         <v>13.3</v>
       </c>
     </row>
-    <row r="163" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>43983</v>
       </c>
@@ -9913,15 +9450,14 @@
       <c r="O163" s="3">
         <v>38.31</v>
       </c>
-      <c r="P163" s="3"/>
-      <c r="Q163" s="6">
+      <c r="P163" s="6">
         <v>1273</v>
       </c>
-      <c r="R163" s="8">
+      <c r="Q163" s="8">
         <v>11.1</v>
       </c>
     </row>
-    <row r="164" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>44013</v>
       </c>
@@ -9968,15 +9504,14 @@
       <c r="O164" s="3">
         <v>40.71</v>
       </c>
-      <c r="P164" s="3"/>
-      <c r="Q164" s="6">
+      <c r="P164" s="6">
         <v>1497</v>
       </c>
-      <c r="R164" s="8">
+      <c r="Q164" s="8">
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="165" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>44044</v>
       </c>
@@ -10023,15 +9558,14 @@
       <c r="O165" s="3">
         <v>42.34</v>
       </c>
-      <c r="P165" s="3"/>
-      <c r="Q165" s="6">
+      <c r="P165" s="6">
         <v>1376</v>
       </c>
-      <c r="R165" s="8">
+      <c r="Q165" s="8">
         <v>8.4</v>
       </c>
     </row>
-    <row r="166" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>44075</v>
       </c>
@@ -10078,15 +9612,14 @@
       <c r="O166" s="3">
         <v>39.630000000000003</v>
       </c>
-      <c r="P166" s="3"/>
-      <c r="Q166" s="6">
+      <c r="P166" s="6">
         <v>1448</v>
       </c>
-      <c r="R166" s="8">
+      <c r="Q166" s="8">
         <v>7.8</v>
       </c>
     </row>
-    <row r="167" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>44105</v>
       </c>
@@ -10133,15 +9666,14 @@
       <c r="O167" s="3">
         <v>39.4</v>
       </c>
-      <c r="P167" s="3"/>
-      <c r="Q167" s="6">
+      <c r="P167" s="6">
         <v>1514</v>
       </c>
-      <c r="R167" s="8">
+      <c r="Q167" s="8">
         <v>6.9</v>
       </c>
     </row>
-    <row r="168" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>44136</v>
       </c>
@@ -10188,15 +9720,14 @@
       <c r="O168" s="3">
         <v>40.94</v>
       </c>
-      <c r="P168" s="3"/>
-      <c r="Q168" s="6">
+      <c r="P168" s="6">
         <v>1551</v>
       </c>
-      <c r="R168" s="8">
+      <c r="Q168" s="8">
         <v>6.7</v>
       </c>
     </row>
-    <row r="169" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>44166</v>
       </c>
@@ -10243,15 +9774,14 @@
       <c r="O169" s="3">
         <v>47.02</v>
       </c>
-      <c r="P169" s="3"/>
-      <c r="Q169" s="6">
+      <c r="P169" s="6">
         <v>1661</v>
       </c>
-      <c r="R169" s="8">
+      <c r="Q169" s="8">
         <v>6.7</v>
       </c>
     </row>
-    <row r="170" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>44197</v>
       </c>
@@ -10298,15 +9828,14 @@
       <c r="O170" s="3">
         <v>52</v>
       </c>
-      <c r="P170" s="3"/>
-      <c r="Q170" s="6">
+      <c r="P170" s="6">
         <v>1625</v>
       </c>
-      <c r="R170" s="8">
+      <c r="Q170" s="8">
         <v>6.3</v>
       </c>
     </row>
-    <row r="171" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>44228</v>
       </c>
@@ -10353,15 +9882,14 @@
       <c r="O171" s="3">
         <v>59.04</v>
       </c>
-      <c r="P171" s="3"/>
-      <c r="Q171" s="6">
+      <c r="P171" s="6">
         <v>1447</v>
       </c>
-      <c r="R171" s="8">
+      <c r="Q171" s="8">
         <v>6.2</v>
       </c>
     </row>
-    <row r="172" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>44256</v>
       </c>
@@ -10408,15 +9936,14 @@
       <c r="O172" s="3">
         <v>62.33</v>
       </c>
-      <c r="P172" s="3"/>
-      <c r="Q172" s="6">
+      <c r="P172" s="6">
         <v>1725</v>
       </c>
-      <c r="R172" s="8">
+      <c r="Q172" s="8">
         <v>6</v>
       </c>
     </row>
-    <row r="173" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>44287</v>
       </c>
@@ -10463,15 +9990,14 @@
       <c r="O173" s="3">
         <v>61.72</v>
       </c>
-      <c r="P173" s="3"/>
-      <c r="Q173" s="6">
+      <c r="P173" s="6">
         <v>1517</v>
       </c>
-      <c r="R173" s="8">
+      <c r="Q173" s="8">
         <v>6.1</v>
       </c>
     </row>
-    <row r="174" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>44317</v>
       </c>
@@ -10518,15 +10044,14 @@
       <c r="O174" s="3">
         <v>65.17</v>
       </c>
-      <c r="P174" s="3"/>
-      <c r="Q174" s="6">
+      <c r="P174" s="6">
         <v>1572</v>
       </c>
-      <c r="R174" s="8">
+      <c r="Q174" s="8">
         <v>5.8</v>
       </c>
     </row>
-    <row r="175" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>44348</v>
       </c>
@@ -10573,11 +10098,10 @@
       <c r="O175" s="3">
         <v>71.38</v>
       </c>
-      <c r="P175" s="3"/>
-      <c r="Q175" s="7">
+      <c r="P175" s="7">
         <v>1572</v>
       </c>
-      <c r="R175" s="8">
+      <c r="Q175" s="8">
         <v>5.9</v>
       </c>
     </row>

--- a/Macro_Data.xlsx
+++ b/Macro_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Elise/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\uoftMMF2025 Risk Management Lab\roboadvisor-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FF8301A-B7BA-C444-9334-C843999BB47F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F3BB16D-55F0-43AE-9206-2F6190E440D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34440" yWindow="-2360" windowWidth="28040" windowHeight="16940" activeTab="1" xr2:uid="{4EE6053A-958A-2B47-B0A7-FFE2C60B47C8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{4EE6053A-958A-2B47-B0A7-FFE2C60B47C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="2" r:id="rId1"/>
@@ -507,12 +507,12 @@
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="19.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -520,7 +520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -528,7 +528,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -536,7 +536,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -544,7 +544,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -552,7 +552,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -560,7 +560,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -568,7 +568,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -576,7 +576,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -584,7 +584,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -592,7 +592,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -600,7 +600,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -608,7 +608,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -616,7 +616,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -624,7 +624,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -632,7 +632,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -649,17 +649,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AF1C6B7-520D-6645-8913-D347E608A51C}">
   <dimension ref="A1:Q175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A175" sqref="A175"/>
+    <sheetView tabSelected="1" topLeftCell="A160" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C162" sqref="C162"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="16.83203125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -709,7 +709,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>39083</v>
       </c>
@@ -763,7 +763,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>39114</v>
       </c>
@@ -817,7 +817,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>39142</v>
       </c>
@@ -871,7 +871,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>39173</v>
       </c>
@@ -925,7 +925,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>39203</v>
       </c>
@@ -979,7 +979,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>39234</v>
       </c>
@@ -1033,7 +1033,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>39264</v>
       </c>
@@ -1087,7 +1087,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>39295</v>
       </c>
@@ -1141,7 +1141,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>39326</v>
       </c>
@@ -1195,7 +1195,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>39356</v>
       </c>
@@ -1249,7 +1249,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>39387</v>
       </c>
@@ -1303,7 +1303,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>39417</v>
       </c>
@@ -1357,7 +1357,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>39448</v>
       </c>
@@ -1411,7 +1411,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>39479</v>
       </c>
@@ -1465,7 +1465,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>39508</v>
       </c>
@@ -1519,7 +1519,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>39539</v>
       </c>
@@ -1573,7 +1573,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>39569</v>
       </c>
@@ -1627,7 +1627,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>39600</v>
       </c>
@@ -1681,7 +1681,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>39630</v>
       </c>
@@ -1735,7 +1735,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>39661</v>
       </c>
@@ -1789,7 +1789,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>39692</v>
       </c>
@@ -1843,7 +1843,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>39722</v>
       </c>
@@ -1897,7 +1897,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>39753</v>
       </c>
@@ -1951,7 +1951,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>39783</v>
       </c>
@@ -2005,7 +2005,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>39814</v>
       </c>
@@ -2059,7 +2059,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>39845</v>
       </c>
@@ -2113,7 +2113,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>39873</v>
       </c>
@@ -2167,7 +2167,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>39904</v>
       </c>
@@ -2221,7 +2221,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>39934</v>
       </c>
@@ -2275,7 +2275,7 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>39965</v>
       </c>
@@ -2329,7 +2329,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>39995</v>
       </c>
@@ -2383,7 +2383,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>40026</v>
       </c>
@@ -2437,7 +2437,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>40057</v>
       </c>
@@ -2491,7 +2491,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>40087</v>
       </c>
@@ -2545,7 +2545,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>40118</v>
       </c>
@@ -2599,7 +2599,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>40148</v>
       </c>
@@ -2653,7 +2653,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>40179</v>
       </c>
@@ -2707,7 +2707,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>40210</v>
       </c>
@@ -2761,7 +2761,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>40238</v>
       </c>
@@ -2815,7 +2815,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>40269</v>
       </c>
@@ -2869,7 +2869,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>40299</v>
       </c>
@@ -2923,7 +2923,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>40330</v>
       </c>
@@ -2977,7 +2977,7 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>40360</v>
       </c>
@@ -3031,7 +3031,7 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>40391</v>
       </c>
@@ -3085,7 +3085,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>40422</v>
       </c>
@@ -3139,7 +3139,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>40452</v>
       </c>
@@ -3193,7 +3193,7 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>40483</v>
       </c>
@@ -3247,7 +3247,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>40513</v>
       </c>
@@ -3301,7 +3301,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>40544</v>
       </c>
@@ -3355,7 +3355,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>40575</v>
       </c>
@@ -3409,7 +3409,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>40603</v>
       </c>
@@ -3463,7 +3463,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>40634</v>
       </c>
@@ -3517,7 +3517,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>40664</v>
       </c>
@@ -3571,7 +3571,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>40695</v>
       </c>
@@ -3625,7 +3625,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>40725</v>
       </c>
@@ -3679,7 +3679,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>40756</v>
       </c>
@@ -3733,7 +3733,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>40787</v>
       </c>
@@ -3787,7 +3787,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>40817</v>
       </c>
@@ -3841,7 +3841,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>40848</v>
       </c>
@@ -3895,7 +3895,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>40878</v>
       </c>
@@ -3949,7 +3949,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>40909</v>
       </c>
@@ -4003,7 +4003,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>40940</v>
       </c>
@@ -4057,7 +4057,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>40969</v>
       </c>
@@ -4111,7 +4111,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>41000</v>
       </c>
@@ -4165,7 +4165,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>41030</v>
       </c>
@@ -4219,7 +4219,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>41061</v>
       </c>
@@ -4273,7 +4273,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>41091</v>
       </c>
@@ -4327,7 +4327,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>41122</v>
       </c>
@@ -4381,7 +4381,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>41153</v>
       </c>
@@ -4435,7 +4435,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>41183</v>
       </c>
@@ -4489,7 +4489,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>41214</v>
       </c>
@@ -4543,7 +4543,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>41244</v>
       </c>
@@ -4597,7 +4597,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>41275</v>
       </c>
@@ -4651,7 +4651,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>41306</v>
       </c>
@@ -4705,7 +4705,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>41334</v>
       </c>
@@ -4759,7 +4759,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>41365</v>
       </c>
@@ -4813,7 +4813,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>41395</v>
       </c>
@@ -4867,7 +4867,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>41426</v>
       </c>
@@ -4921,7 +4921,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>41456</v>
       </c>
@@ -4975,7 +4975,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>41487</v>
       </c>
@@ -5029,7 +5029,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>41518</v>
       </c>
@@ -5083,7 +5083,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>41548</v>
       </c>
@@ -5137,7 +5137,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>41579</v>
       </c>
@@ -5191,7 +5191,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>41609</v>
       </c>
@@ -5245,7 +5245,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>41640</v>
       </c>
@@ -5299,7 +5299,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>41671</v>
       </c>
@@ -5353,7 +5353,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>41699</v>
       </c>
@@ -5407,7 +5407,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>41730</v>
       </c>
@@ -5461,7 +5461,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>41760</v>
       </c>
@@ -5515,7 +5515,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>41791</v>
       </c>
@@ -5569,7 +5569,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>41821</v>
       </c>
@@ -5623,7 +5623,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>41852</v>
       </c>
@@ -5677,7 +5677,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>41883</v>
       </c>
@@ -5731,7 +5731,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>41913</v>
       </c>
@@ -5785,7 +5785,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>41944</v>
       </c>
@@ -5839,7 +5839,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>41974</v>
       </c>
@@ -5893,7 +5893,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>42005</v>
       </c>
@@ -5947,7 +5947,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>42036</v>
       </c>
@@ -6001,7 +6001,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>42064</v>
       </c>
@@ -6055,7 +6055,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>42095</v>
       </c>
@@ -6109,7 +6109,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>42125</v>
       </c>
@@ -6163,7 +6163,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>42156</v>
       </c>
@@ -6217,7 +6217,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>42186</v>
       </c>
@@ -6271,7 +6271,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>42217</v>
       </c>
@@ -6325,7 +6325,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
         <v>42248</v>
       </c>
@@ -6379,7 +6379,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
         <v>42278</v>
       </c>
@@ -6433,7 +6433,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
         <v>42309</v>
       </c>
@@ -6487,7 +6487,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
         <v>42339</v>
       </c>
@@ -6541,7 +6541,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
         <v>42370</v>
       </c>
@@ -6595,7 +6595,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
         <v>42401</v>
       </c>
@@ -6649,7 +6649,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
         <v>42430</v>
       </c>
@@ -6703,7 +6703,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
         <v>42461</v>
       </c>
@@ -6757,7 +6757,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
         <v>42491</v>
       </c>
@@ -6811,7 +6811,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
         <v>42522</v>
       </c>
@@ -6865,7 +6865,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
         <v>42552</v>
       </c>
@@ -6919,7 +6919,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
         <v>42583</v>
       </c>
@@ -6973,7 +6973,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
         <v>42614</v>
       </c>
@@ -7027,7 +7027,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
         <v>42644</v>
       </c>
@@ -7081,7 +7081,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
         <v>42675</v>
       </c>
@@ -7135,7 +7135,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
         <v>42705</v>
       </c>
@@ -7189,7 +7189,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
         <v>42736</v>
       </c>
@@ -7243,7 +7243,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
         <v>42767</v>
       </c>
@@ -7297,7 +7297,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
         <v>42795</v>
       </c>
@@ -7351,7 +7351,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
         <v>42826</v>
       </c>
@@ -7405,7 +7405,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
         <v>42856</v>
       </c>
@@ -7459,7 +7459,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A127" s="1">
         <v>42887</v>
       </c>
@@ -7513,7 +7513,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A128" s="1">
         <v>42917</v>
       </c>
@@ -7567,7 +7567,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A129" s="1">
         <v>42948</v>
       </c>
@@ -7621,7 +7621,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A130" s="1">
         <v>42979</v>
       </c>
@@ -7675,7 +7675,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A131" s="1">
         <v>43009</v>
       </c>
@@ -7729,7 +7729,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
         <v>43040</v>
       </c>
@@ -7783,7 +7783,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A133" s="1">
         <v>43070</v>
       </c>
@@ -7837,7 +7837,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A134" s="1">
         <v>43101</v>
       </c>
@@ -7891,7 +7891,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
         <v>43132</v>
       </c>
@@ -7945,7 +7945,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A136" s="1">
         <v>43160</v>
       </c>
@@ -7999,7 +7999,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A137" s="1">
         <v>43191</v>
       </c>
@@ -8053,7 +8053,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A138" s="1">
         <v>43221</v>
       </c>
@@ -8107,7 +8107,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A139" s="1">
         <v>43252</v>
       </c>
@@ -8161,7 +8161,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
         <v>43282</v>
       </c>
@@ -8215,7 +8215,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A141" s="1">
         <v>43313</v>
       </c>
@@ -8269,7 +8269,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A142" s="1">
         <v>43344</v>
       </c>
@@ -8323,7 +8323,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A143" s="1">
         <v>43374</v>
       </c>
@@ -8377,7 +8377,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A144" s="1">
         <v>43405</v>
       </c>
@@ -8431,7 +8431,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A145" s="1">
         <v>43435</v>
       </c>
@@ -8485,7 +8485,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A146" s="1">
         <v>43466</v>
       </c>
@@ -8539,7 +8539,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A147" s="1">
         <v>43497</v>
       </c>
@@ -8593,7 +8593,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A148" s="1">
         <v>43525</v>
       </c>
@@ -8647,7 +8647,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A149" s="1">
         <v>43556</v>
       </c>
@@ -8701,7 +8701,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A150" s="1">
         <v>43586</v>
       </c>
@@ -8755,7 +8755,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A151" s="1">
         <v>43617</v>
       </c>
@@ -8809,7 +8809,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A152" s="1">
         <v>43647</v>
       </c>
@@ -8863,7 +8863,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A153" s="1">
         <v>43678</v>
       </c>
@@ -8917,7 +8917,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A154" s="1">
         <v>43709</v>
       </c>
@@ -8971,7 +8971,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="155" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A155" s="1">
         <v>43739</v>
       </c>
@@ -9025,7 +9025,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="156" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A156" s="1">
         <v>43770</v>
       </c>
@@ -9079,7 +9079,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="157" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A157" s="1">
         <v>43800</v>
       </c>
@@ -9133,7 +9133,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="158" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A158" s="1">
         <v>43831</v>
       </c>
@@ -9187,7 +9187,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="159" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A159" s="1">
         <v>43862</v>
       </c>
@@ -9241,7 +9241,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="160" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A160" s="1">
         <v>43891</v>
       </c>
@@ -9295,7 +9295,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="161" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A161" s="1">
         <v>43922</v>
       </c>
@@ -9349,7 +9349,7 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="162" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A162" s="1">
         <v>43952</v>
       </c>
@@ -9403,7 +9403,7 @@
         <v>13.3</v>
       </c>
     </row>
-    <row r="163" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A163" s="1">
         <v>43983</v>
       </c>
@@ -9457,7 +9457,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="164" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A164" s="1">
         <v>44013</v>
       </c>
@@ -9511,7 +9511,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="165" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A165" s="1">
         <v>44044</v>
       </c>
@@ -9565,7 +9565,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="166" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A166" s="1">
         <v>44075</v>
       </c>
@@ -9619,7 +9619,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="167" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A167" s="1">
         <v>44105</v>
       </c>
@@ -9673,7 +9673,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="168" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A168" s="1">
         <v>44136</v>
       </c>
@@ -9727,7 +9727,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="169" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A169" s="1">
         <v>44166</v>
       </c>
@@ -9781,7 +9781,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="170" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A170" s="1">
         <v>44197</v>
       </c>
@@ -9835,7 +9835,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="171" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A171" s="1">
         <v>44228</v>
       </c>
@@ -9889,7 +9889,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="172" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A172" s="1">
         <v>44256</v>
       </c>
@@ -9943,7 +9943,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="173" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A173" s="1">
         <v>44287</v>
       </c>
@@ -9997,7 +9997,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="174" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A174" s="1">
         <v>44317</v>
       </c>
@@ -10051,9 +10051,9 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="175" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A175" s="1">
-        <v>44348</v>
+        <v>44347</v>
       </c>
       <c r="B175" s="5">
         <v>99.856200000000001</v>

--- a/Macro_Data.xlsx
+++ b/Macro_Data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\uoftMMF2025 Risk Management Lab\roboadvisor-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\uoftMMF2025 Risk Management Lab\roboadvisor-main\roboadvisor-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F3BB16D-55F0-43AE-9206-2F6190E440D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9613BDC-179D-47FD-A0B1-43DC5A58A2E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{4EE6053A-958A-2B47-B0A7-FFE2C60B47C8}"/>
   </bookViews>
@@ -649,8 +649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AF1C6B7-520D-6645-8913-D347E608A51C}">
   <dimension ref="A1:Q175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C162" sqref="C162"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -8722,7 +8722,7 @@
         <v>0.96</v>
       </c>
       <c r="G150" s="3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="H150" s="3">
         <v>2.82</v>
